--- a/PC.xlsx
+++ b/PC.xlsx
@@ -1,34 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linh Trang\Desktop\ttnhom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Phân chia</t>
   </si>
   <si>
-    <t>Tên nhiệm vụ</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Phụ trách</t>
+    <t>Nhiệm vụ</t>
+  </si>
+  <si>
+    <t>Phụ Trách</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện cửa sổ chính (màn hình đăng nhập, các menu trỏ đến các module con,…). Xây dựng module quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Chạy kiểm thử phần mềm kết quả</t>
+  </si>
+  <si>
+    <t>Giỏi</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Quản Lý Nhân Sự</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thông tin nhóm: 
+Nhóm trưởng: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lê Thị Linh Trang</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Các thành viên:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1. Trần Thị Linh Chi
+2. Phạm Thị Giỏi 
+3. Nguyễn Thị Bích Ngọc
+4.Vương Văn Long</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>Xây dựng phần mềm quản lý nhân sự</t>
@@ -37,53 +107,53 @@
     <t>Thiết kế CSDL nhân sự</t>
   </si>
   <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện cửa sổ chính (màn hình đăng nhập, các menu trỏ đến các module con,…). Xây dựng module quản lý người dùng</t>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
   <si>
     <t>Xây dựng module thêm nhân sự mới</t>
   </si>
   <si>
+    <t>1.4</t>
+  </si>
+  <si>
     <t>Xây dựng module Phòng Ban</t>
   </si>
   <si>
-    <t>Chi</t>
-  </si>
-  <si>
     <t>Xây dựng module huỷ , xóa, thoát nhân sự</t>
   </si>
   <si>
-    <t>Ngọc</t>
-  </si>
-  <si>
     <t>Xây dựng module Thêm, Sửa, cập nhật , tìm kiếm nhân sự</t>
   </si>
   <si>
-    <t>Long</t>
+    <t>Xây dựng module form start, hướng dẫn</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
   <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>Xây dựng module form start, hướng dẫn</t>
-  </si>
-  <si>
-    <t>Giỏi</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
-    <t>Chạy kiểm thử phần mềm kết quả</t>
+    <t>Giỏi,Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,14 +163,42 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -113,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,16 +221,42 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -140,32 +264,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -464,153 +618,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:H14"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+    <row r="2" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="4:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4" t="s">
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="4:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PC.xlsx
+++ b/PC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linh Trang\Desktop\ttnhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\QLNS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Phân chia</t>
   </si>
@@ -125,9 +159,6 @@
     <t>Xây dựng module huỷ , xóa, thoát nhân sự</t>
   </si>
   <si>
-    <t>Xây dựng module Thêm, Sửa, cập nhật , tìm kiếm nhân sự</t>
-  </si>
-  <si>
     <t>Xây dựng module form start, hướng dẫn</t>
   </si>
   <si>
@@ -143,17 +174,23 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>Giỏi,Trang</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Xây dựng module  Sửa, cập nhật , tìm kiếm nhân sự</t>
+  </si>
+  <si>
+    <t>Xây dựng module Thông tin phòng ban</t>
+  </si>
+  <si>
+    <t>Chi ,Trang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +239,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,24 +297,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,9 +322,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -298,9 +332,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -314,6 +345,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,11 +651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,28 +668,28 @@
   <sheetData>
     <row r="2" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -663,127 +697,138 @@
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+    <row r="13" spans="2:7" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+    <row r="14" spans="2:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+    <row r="15" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -791,6 +836,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
